--- a/Office/Excel/se().xlsx
+++ b/Office/Excel/se().xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Curso\Office\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D96A26-A405-4EF2-AB72-6B5CCFCF8680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDCF17E-9D8E-4DEF-9AA2-197C09B8948D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C523B599-808D-477B-9AC9-8E990DD136EB}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{C523B599-808D-477B-9AC9-8E990DD136EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="SE parte1" sheetId="1" r:id="rId1"/>
+    <sheet name="SE parte2" sheetId="2" r:id="rId2"/>
+    <sheet name="SE parte3" sheetId="3" r:id="rId3"/>
+    <sheet name="SE parte4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Estoque</t>
   </si>
@@ -73,13 +76,124 @@
   </si>
   <si>
     <t>EX: =SE( G7&lt;0; "erro"; "OK" )</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Faturamento</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Função SE Parte 3 - aninhamento</t>
+  </si>
+  <si>
+    <t>Função SE Parte 2 - celula fixa</t>
+  </si>
+  <si>
+    <t>Aluno</t>
+  </si>
+  <si>
+    <t>1º Bimestre</t>
+  </si>
+  <si>
+    <t>2º Bimestre</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Mari Ligia</t>
+  </si>
+  <si>
+    <t>Antônia Conceição</t>
+  </si>
+  <si>
+    <t>Kaue Silva</t>
+  </si>
+  <si>
+    <t>Suellen Gloria</t>
+  </si>
+  <si>
+    <t>Rodrigo Vinicius</t>
+  </si>
+  <si>
+    <t>Ana Silva</t>
+  </si>
+  <si>
+    <t>Mel Lima</t>
+  </si>
+  <si>
+    <t>Mauro Nascimento</t>
+  </si>
+  <si>
+    <t>Washinton Luiz</t>
+  </si>
+  <si>
+    <t>Silvana Domingos</t>
+  </si>
+  <si>
+    <t>Função SE Parte 3 - SEERRO</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Diferença</t>
+  </si>
+  <si>
+    <t>Computador</t>
+  </si>
+  <si>
+    <t>Memória</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>teclado</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Valor de Venda</t>
+  </si>
+  <si>
+    <t>Lucro Percentual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +246,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +290,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -199,19 +361,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -220,32 +420,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -258,11 +534,384 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -588,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA0C1D5-D010-4D80-BD09-CC33656A45F4}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
@@ -605,235 +1254,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>25</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5">
         <v>25</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6">
+      <c r="F7" s="4"/>
+      <c r="G7" s="5">
         <f>C7-E7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7" t="str">
+      <c r="H7" s="4"/>
+      <c r="I7" s="6" t="str">
         <f>IF(G7&lt;0,"ERRO","OK")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>25</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
         <v>27</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6">
+      <c r="F8" s="4"/>
+      <c r="G8" s="5">
         <f t="shared" ref="G8:G13" si="0">C8-E8</f>
         <v>-2</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7" t="str">
+      <c r="H8" s="4"/>
+      <c r="I8" s="6" t="str">
         <f t="shared" ref="I8:I13" si="1">IF(G8&lt;0,"ERRO","OK")</f>
         <v>ERRO</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5">
         <v>21</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6">
+      <c r="F9" s="4"/>
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7" t="str">
+      <c r="H9" s="4"/>
+      <c r="I9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>19</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5">
         <v>32</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6">
+      <c r="F10" s="4"/>
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>-13</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7" t="str">
+      <c r="H10" s="4"/>
+      <c r="I10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ERRO</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>6</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5">
         <v>6</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6">
+      <c r="F11" s="4"/>
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7" t="str">
+      <c r="H11" s="4"/>
+      <c r="I11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>15</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5">
         <v>14</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6">
+      <c r="F12" s="4"/>
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7" t="str">
+      <c r="H12" s="4"/>
+      <c r="I12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>23</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5">
         <v>11</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6">
+      <c r="F13" s="4"/>
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7" t="str">
+      <c r="H13" s="4"/>
+      <c r="I13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
@@ -847,16 +1487,616 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ERRO">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="ERRO">
       <formula>NOT(ISERROR(SEARCH("ERRO",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275ED9E-BD12-40B3-9F87-05684771E34E}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="17">
+        <v>20500</v>
+      </c>
+      <c r="C6" s="17">
+        <v>19600</v>
+      </c>
+      <c r="D6" s="17">
+        <f>B6-C6</f>
+        <v>900</v>
+      </c>
+      <c r="E6" s="17" t="str">
+        <f>IF(D6&gt;=$B$3,"LUCRO","PREJUIZO")</f>
+        <v>PREJUIZO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="17">
+        <v>21755</v>
+      </c>
+      <c r="C7" s="17">
+        <v>13400</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" ref="D7:D11" si="0">B7-C7</f>
+        <v>8355</v>
+      </c>
+      <c r="E7" s="17" t="str">
+        <f t="shared" ref="E7:E11" si="1">IF(D7&gt;=$B$3,"LUCRO","PREJUIZO")</f>
+        <v>LUCRO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="17">
+        <v>14755</v>
+      </c>
+      <c r="C8" s="17">
+        <v>12125</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>2630</v>
+      </c>
+      <c r="E8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>PREJUIZO</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17">
+        <v>29800</v>
+      </c>
+      <c r="C9" s="17">
+        <v>13400</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>16400</v>
+      </c>
+      <c r="E9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>LUCRO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="17">
+        <v>29600</v>
+      </c>
+      <c r="C10" s="17">
+        <v>32400</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>-2800</v>
+      </c>
+      <c r="E10" s="17" t="str">
+        <f>IF(D10&gt;=$B$3,"LUCRO","PREJUIZO")</f>
+        <v>PREJUIZO</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="17">
+        <v>13400</v>
+      </c>
+      <c r="C11" s="17">
+        <v>10400</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="E11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>LUCRO</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="17">
+        <f>SUM(D6:D11)</f>
+        <v>28485</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="E6:E11">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"PREJUIZO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"LUCRO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAC73BC-05C8-48C6-8D3B-889FBEE4A859}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="25">
+        <v>4</v>
+      </c>
+      <c r="C4" s="25">
+        <v>7</v>
+      </c>
+      <c r="D4" s="29">
+        <f>AVERAGE(B4:C4)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="31" t="str">
+        <f>IF(D4&gt;=7,"Aprovado(a)",IF(D4&gt;=5,"Exame","Reprovado(a)"))</f>
+        <v>Exame</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <f t="shared" ref="D5:D13" si="0">AVERAGE(B5:C5)</f>
+        <v>2.75</v>
+      </c>
+      <c r="E5" s="31" t="str">
+        <f t="shared" ref="E5:E13" si="1">IF(D5&gt;=7,"Aprovado(a)",IF(D5&gt;=5,"Exame","Reprovado(a)"))</f>
+        <v>Reprovado(a)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="25">
+        <v>10</v>
+      </c>
+      <c r="C6" s="25">
+        <v>8</v>
+      </c>
+      <c r="D6" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E6" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado(a)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="25">
+        <v>10</v>
+      </c>
+      <c r="D7" s="29">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="E7" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado(a)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="C8" s="25">
+        <v>10</v>
+      </c>
+      <c r="D8" s="29">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="E8" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado(a)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="25">
+        <v>4</v>
+      </c>
+      <c r="C9" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="D9" s="29">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="E9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Exame</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="25">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="D10" s="29">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="E10" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Exame</v>
+      </c>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="25">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="29">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="E11" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado(a)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="25">
+        <v>2</v>
+      </c>
+      <c r="C12" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="D12" s="29">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="E12" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Reprovado(a)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="25">
+        <v>9.5</v>
+      </c>
+      <c r="C13" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="D13" s="29">
+        <f>AVERAGE(B13:C13)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E13" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado(a)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="D4:D13">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"PREJUIZO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>"LUCRO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E13">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EXAME">
+      <formula>NOT(ISERROR(SEARCH("EXAME",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Reprovado">
+      <formula>NOT(ISERROR(SEARCH("Reprovado",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FA3642-E30E-40F2-A8A8-E01FF16BFE32}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="35">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="35">
+        <v>3500</v>
+      </c>
+      <c r="D4" s="35">
+        <f>C4-B4</f>
+        <v>500</v>
+      </c>
+      <c r="E4" s="36">
+        <f>IFERROR(D4/C4,"Insira o valor de venda.")</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="35">
+        <v>120</v>
+      </c>
+      <c r="C5" s="35">
+        <v>150</v>
+      </c>
+      <c r="D5" s="35">
+        <f t="shared" ref="D5:D8" si="0">C5-B5</f>
+        <v>30</v>
+      </c>
+      <c r="E5" s="36">
+        <f t="shared" ref="E5:E8" si="1">IFERROR(D5/C5,"Insira o valor de venda.")</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="35">
+        <v>800</v>
+      </c>
+      <c r="C6" s="35">
+        <v>800</v>
+      </c>
+      <c r="D6" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="35">
+        <v>30</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="E7" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Insira o valor de venda.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="35">
+        <v>15</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="E8" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>Insira o valor de venda.</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Office/Excel/se().xlsx
+++ b/Office/Excel/se().xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Curso\Office\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDCF17E-9D8E-4DEF-9AA2-197C09B8948D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FC2C1D-F260-48A4-8DD8-3472D43612A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{C523B599-808D-477B-9AC9-8E990DD136EB}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{C523B599-808D-477B-9AC9-8E990DD136EB}"/>
   </bookViews>
   <sheets>
     <sheet name="SE parte1" sheetId="1" r:id="rId1"/>
     <sheet name="SE parte2" sheetId="2" r:id="rId2"/>
     <sheet name="SE parte3" sheetId="3" r:id="rId3"/>
     <sheet name="SE parte4" sheetId="4" r:id="rId4"/>
+    <sheet name="SE parte5" sheetId="5" r:id="rId5"/>
+    <sheet name="Se parte6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>Estoque</t>
   </si>
@@ -42,18 +44,6 @@
     <t>Produto</t>
   </si>
   <si>
-    <t xml:space="preserve"> iPhone6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iPhone7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iPhone6s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iPhone7plus</t>
-  </si>
-  <si>
     <t>S8</t>
   </si>
   <si>
@@ -156,9 +146,6 @@
     <t>Silvana Domingos</t>
   </si>
   <si>
-    <t>Função SE Parte 3 - SEERRO</t>
-  </si>
-  <si>
     <t>Custo</t>
   </si>
   <si>
@@ -184,16 +171,89 @@
   </si>
   <si>
     <t>Lucro Percentual</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>% de Devolução</t>
+  </si>
+  <si>
+    <t>Status de Comissão</t>
+  </si>
+  <si>
+    <t>Função SE Parte 4 - SEERRO</t>
+  </si>
+  <si>
+    <t>Função SE Parte 5 - SE e E</t>
+  </si>
+  <si>
+    <t>Função SE Parte 6 - SE e OU</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>Profissão</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Resultado da Análise</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Antonio </t>
+  </si>
+  <si>
+    <t>Rafael Teixeira</t>
+  </si>
+  <si>
+    <t>Marcos Fernades</t>
+  </si>
+  <si>
+    <t>Julio César</t>
+  </si>
+  <si>
+    <t>Engenheiro</t>
+  </si>
+  <si>
+    <t>Pedreiro</t>
+  </si>
+  <si>
+    <t>Padeiro</t>
+  </si>
+  <si>
+    <t>Aposentado(a)</t>
+  </si>
+  <si>
+    <t>iPhone7plus</t>
+  </si>
+  <si>
+    <t>iPhone7</t>
+  </si>
+  <si>
+    <t>iPhone6s</t>
+  </si>
+  <si>
+    <t>iPhone6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,14 +294,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -398,67 +450,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -468,21 +537,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="135"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -490,17 +623,44 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="20">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -509,8 +669,26 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
+        <color rgb="FF9A0000"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -574,6 +752,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -615,128 +813,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -755,178 +831,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9393"/>
+      <color rgb="FF9A0000"/>
+      <color rgb="FF860000"/>
+      <color rgb="FFFF7171"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1235,265 +1149,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA0C1D5-D010-4D80-BD09-CC33656A45F4}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E29:E30"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <f>B6-C6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>IF(D6&lt;0,"ERRO","OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <f>B7-C7</f>
+        <v>-2</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" ref="E7:E12" si="0">IF(D7&lt;0,"ERRO","OK")</f>
+        <v>ERRO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8-C8</f>
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <f>B9-C9</f>
+        <v>-13</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ERRO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <f>B10-C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1">
+        <f>B11-C11</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <f>B12-C12</f>
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5">
-        <f>C7-E7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6" t="str">
-        <f>IF(G7&lt;0,"ERRO","OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5">
-        <f t="shared" ref="G8:G13" si="0">C8-E8</f>
-        <v>-2</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6" t="str">
-        <f t="shared" ref="I8:I13" si="1">IF(G8&lt;0,"ERRO","OK")</f>
-        <v>ERRO</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>ERRO</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5">
-        <v>14</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="ERRO">
-      <formula>NOT(ISERROR(SEARCH("ERRO",I1)))</formula>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="ERRO">
+      <formula>NOT(ISERROR(SEARCH("ERRO",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1503,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275ED9E-BD12-40B3-9F87-05684771E34E}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,166 +1382,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7">
         <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>11</v>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6">
         <v>20500</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="6">
         <v>19600</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="6">
         <f>B6-C6</f>
         <v>900</v>
       </c>
-      <c r="E6" s="17" t="str">
+      <c r="E6" s="6" t="str">
         <f>IF(D6&gt;=$B$3,"LUCRO","PREJUIZO")</f>
         <v>PREJUIZO</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6">
         <v>21755</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="6">
         <v>13400</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="6">
         <f t="shared" ref="D7:D11" si="0">B7-C7</f>
         <v>8355</v>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" ref="E7:E11" si="1">IF(D7&gt;=$B$3,"LUCRO","PREJUIZO")</f>
         <v>LUCRO</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6">
         <v>14755</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="6">
         <v>12125</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>2630</v>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>PREJUIZO</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6">
         <v>29800</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="6">
         <v>13400</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>16400</v>
       </c>
-      <c r="E9" s="17" t="str">
+      <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>LUCRO</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6">
         <v>29600</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="6">
         <v>32400</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>-2800</v>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="6" t="str">
         <f>IF(D10&gt;=$B$3,"LUCRO","PREJUIZO")</f>
         <v>PREJUIZO</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6">
         <v>13400</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="6">
         <v>10400</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>LUCRO</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B13" s="6">
         <f>SUM(D6:D11)</f>
         <v>28485</v>
       </c>
@@ -1688,10 +1552,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E6:E11">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"PREJUIZO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"LUCRO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1705,20 +1569,19 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1726,209 +1589,209 @@
       <c r="E1" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="25">
+      <c r="B4" s="11">
         <v>4</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="11">
         <v>7</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="13">
         <f>AVERAGE(B4:C4)</f>
         <v>5.5</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="15" t="str">
         <f>IF(D4&gt;=7,"Aprovado(a)",IF(D4&gt;=5,"Exame","Reprovado(a)"))</f>
         <v>Exame</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="25">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="11">
         <v>4.5</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="29">
-        <f t="shared" ref="D5:D13" si="0">AVERAGE(B5:C5)</f>
+      <c r="D5" s="13">
+        <f t="shared" ref="D5:D12" si="0">AVERAGE(B5:C5)</f>
         <v>2.75</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="15" t="str">
         <f t="shared" ref="E5:E13" si="1">IF(D5&gt;=7,"Aprovado(a)",IF(D5&gt;=5,"Exame","Reprovado(a)"))</f>
         <v>Reprovado(a)</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="11">
         <v>10</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="11">
         <v>8</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Aprovado(a)</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="25">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="11">
         <v>7.5</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Aprovado(a)</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="25">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11">
         <v>6.5</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="11">
         <v>10</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Aprovado(a)</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="25">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="11">
         <v>6.5</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Exame</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="25">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="11">
         <v>4.5</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Exame</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="25">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="11">
         <v>6.5</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Aprovado(a)</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="25">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="11">
         <v>6.5</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Reprovado(a)</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="25">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="11">
         <v>9.5</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="11">
         <v>7.5</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="13">
         <f>AVERAGE(B13:C13)</f>
         <v>8.5</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Aprovado(a)</v>
       </c>
@@ -1939,18 +1802,18 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D4:D13">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"PREJUIZO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"LUCRO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E13">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EXAME">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="EXAME">
       <formula>NOT(ISERROR(SEARCH("EXAME",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Reprovado">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Reprovado">
       <formula>NOT(ISERROR(SEARCH("Reprovado",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1963,140 +1826,463 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FA3642-E30E-40F2-A8A8-E01FF16BFE32}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="17" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3500</v>
+      </c>
+      <c r="D4" s="18">
+        <f>C4-B4</f>
+        <v>500</v>
+      </c>
+      <c r="E4" s="19">
+        <f>IFERROR(D4/C4,"Insira o valor de venda.")</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="18">
+        <v>120</v>
+      </c>
+      <c r="C5" s="18">
+        <v>150</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5:D8" si="0">C5-B5</f>
+        <v>30</v>
+      </c>
+      <c r="E5" s="19">
+        <f t="shared" ref="E5:E8" si="1">IFERROR(D5/C5,"Insira o valor de venda.")</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="18">
+        <v>800</v>
+      </c>
+      <c r="C6" s="18">
+        <v>800</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="18">
+        <v>30</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="E7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Insira o valor de venda.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="18">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="E8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Insira o valor de venda.</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E7:E8">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Insira">
+      <formula>NOT(ISERROR(SEARCH("Insira",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9585B-0D70-488D-A860-DB64AD6109D8}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="35">
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="32">
         <v>3000</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="32">
         <v>3500</v>
       </c>
-      <c r="D4" s="35">
-        <f>C4-B4</f>
-        <v>500</v>
-      </c>
-      <c r="E4" s="36">
-        <f>IFERROR(D4/C4,"Insira o valor de venda.")</f>
-        <v>0.14285714285714285</v>
+      <c r="D4" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="28" t="str">
+        <f>IF(AND(C4&gt;=B4,D4&lt;5),"Comissão OK","Sem Comissão")</f>
+        <v>Comissão OK</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="35">
-        <v>120</v>
-      </c>
-      <c r="C5" s="35">
-        <v>150</v>
-      </c>
-      <c r="D5" s="35">
-        <f t="shared" ref="D5:D8" si="0">C5-B5</f>
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="32">
+        <v>7800</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="28" t="str">
+        <f>IF(AND(C5&gt;=B5,D5&lt;5%),"Comissão OK","Sem Comissão")</f>
+        <v>Sem Comissão</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="36">
-        <f t="shared" ref="E5:E8" si="1">IFERROR(D5/C5,"Insira o valor de venda.")</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="35">
-        <v>800</v>
-      </c>
-      <c r="C6" s="35">
-        <v>800</v>
-      </c>
-      <c r="D6" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B6" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="32">
+        <v>4500</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="28" t="str">
+        <f>IF(AND(C6&gt;=B6,D6&lt;5%),"Comissão OK","Sem Comissão")</f>
+        <v>Comissão OK</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="35">
-        <v>30</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
-        <f t="shared" si="0"/>
-        <v>-30</v>
-      </c>
-      <c r="E7" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v>Insira o valor de venda.</v>
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="32">
+        <v>6500</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="28" t="str">
+        <f t="shared" ref="E7:E10" si="0">IF(AND(C7&gt;=B7,D7&lt;5%),"Comissão OK","Sem Comissão")</f>
+        <v>Comissão OK</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="35">
-        <v>15</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35">
-        <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="E8" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v>Insira o valor de venda.</v>
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Sem Comissão</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Sem Comissão</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="32">
+        <v>3000</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4500</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>Sem Comissão</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="sem">
+      <formula>NOT(ISERROR(SEARCH("sem",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120A7452-9EFC-4F14-82A4-445F4E4C56EB}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="33"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="47">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="48">
+        <v>80</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="str">
+        <f>IF(OR(B4&gt;5000,C4="Aposentado(a)",D4&gt;65),"Empréstimo Concedido","Empréstimo Negado")</f>
+        <v>Empréstimo Concedido</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="47">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="48">
+        <v>44</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="str">
+        <f t="shared" ref="F5:F7" si="0">IF(OR(B5&gt;5000,C5="Aposentado(a)",D5&gt;65),"Empréstimo Concedido","Empréstimo Negado")</f>
+        <v>Empréstimo Concedido</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="47">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="48">
+        <v>21</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>Empréstimo Negado</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="47">
+        <v>7000</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="48">
+        <v>18</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>Empréstimo Concedido</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F4:F7">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Empréstimo negado">
+      <formula>NOT(ISERROR(SEARCH("Empréstimo negado",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Empréstimo concedido">
+      <formula>NOT(ISERROR(SEARCH("Empréstimo concedido",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Office/Excel/se().xlsx
+++ b/Office/Excel/se().xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Curso\Office\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FC2C1D-F260-48A4-8DD8-3472D43612A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF8D91-C81A-48AE-858B-510862B9BFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{C523B599-808D-477B-9AC9-8E990DD136EB}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="7" xr2:uid="{C523B599-808D-477B-9AC9-8E990DD136EB}"/>
   </bookViews>
   <sheets>
     <sheet name="SE parte1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="SE parte3" sheetId="3" r:id="rId3"/>
     <sheet name="SE parte4" sheetId="4" r:id="rId4"/>
     <sheet name="SE parte5" sheetId="5" r:id="rId5"/>
-    <sheet name="Se parte6" sheetId="6" r:id="rId6"/>
+    <sheet name="SE parte5 - grafico" sheetId="8" r:id="rId6"/>
+    <sheet name="SE parte6" sheetId="6" r:id="rId7"/>
+    <sheet name="SE parte7" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>Estoque</t>
   </si>
@@ -146,12 +148,6 @@
     <t>Silvana Domingos</t>
   </si>
   <si>
-    <t>Custo</t>
-  </si>
-  <si>
-    <t>Diferença</t>
-  </si>
-  <si>
     <t>Computador</t>
   </si>
   <si>
@@ -168,9 +164,6 @@
   </si>
   <si>
     <t>Valor de Venda</t>
-  </si>
-  <si>
-    <t>Lucro Percentual</t>
   </si>
   <si>
     <t>Vendedor</t>
@@ -244,6 +237,48 @@
   <si>
     <t>iPhone6</t>
   </si>
+  <si>
+    <t>Controle Administrativo</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Relatório</t>
+  </si>
+  <si>
+    <t>Media de vendas</t>
+  </si>
+  <si>
+    <t>Media de faturamento</t>
+  </si>
+  <si>
+    <t>ALINE REZENDE</t>
+  </si>
+  <si>
+    <t>THEO AUGUSTO</t>
+  </si>
+  <si>
+    <t>PAULA CARDOSO</t>
+  </si>
+  <si>
+    <t>Participações</t>
+  </si>
+  <si>
+    <t>Análise de Vendas</t>
+  </si>
+  <si>
+    <t>Retorno</t>
+  </si>
+  <si>
+    <t>Percentual de Lucro</t>
+  </si>
+  <si>
+    <t>Lucro</t>
+  </si>
+  <si>
+    <t>Valor de Custo</t>
+  </si>
 </sst>
 </file>
 
@@ -251,9 +286,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,8 +363,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +403,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -501,13 +556,340 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,20 +932,6 @@
     <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,19 +942,65 @@
     <xf numFmtId="44" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -597,7 +1011,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,16 +1023,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -623,7 +1088,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -750,93 +1215,12 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9A0000"/>
       <color rgb="FFFF9393"/>
-      <color rgb="FF9A0000"/>
       <color rgb="FF860000"/>
       <color rgb="FFFF7171"/>
     </mruColors>
@@ -850,6 +1234,5086 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentual de Ganho</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SE parte4'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentual de Lucro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SE parte4'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Computador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memória</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Monitor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>teclado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mouse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SE parte4'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15789473684210525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D587-4AB5-828A-2E2A3A52C805}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1088914367"/>
+        <c:axId val="1088915807"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1088914367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088915807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1088915807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1088914367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Relação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de Preços</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SE parte4'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Valor de Custo </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="C00000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SE parte4'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Computador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memória</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Monitor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>teclado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mouse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SE parte4'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B90-4E2E-8520-06476A57CDCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SE parte4'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor de Venda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.9875365933014925E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-2B90-4E2E-8520-06476A57CDCC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0925337632079971E-17"/>
+                  <c:y val="-6.9781890382776129E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2B90-4E2E-8520-06476A57CDCC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526415994E-16"/>
+                  <c:y val="-7.9750731866029753E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-2B90-4E2E-8520-06476A57CDCC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-8.9719573349283474E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2B90-4E2E-8520-06476A57CDCC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526415994E-16"/>
+                  <c:y val="-8.4735152607656614E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2B90-4E2E-8520-06476A57CDCC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SE parte4'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Computador</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memória</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Monitor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>teclado</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mouse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SE parte4'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B90-4E2E-8520-06476A57CDCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1010346799"/>
+        <c:axId val="1010344399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1010346799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1010344399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1010344399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1010346799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Taxa de Devolução</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42688457778459066"/>
+          <c:y val="6.5535468221540175E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2976031671522862E-2"/>
+          <c:y val="0.19468262156521404"/>
+          <c:w val="0.87565481923099975"/>
+          <c:h val="0.69285372090646358"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SE parte5'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% de Devolução</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SE parte5'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Mari Ligia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Antônia Conceição</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kaue Silva</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Suellen Gloria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rodrigo Vinicius</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ana Silva</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mel Lima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SE parte5'!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10A9-4F58-A273-11AA69DC71F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1205154831"/>
+        <c:axId val="1205158191"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1205154831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1205158191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1205158191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1205154831"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.48566856478580317"/>
+          <c:y val="0.17178189018496448"/>
+          <c:w val="0.47599994588305322"/>
+          <c:h val="0.88792252780005654"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SE parte7'!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Participações</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="65000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="65000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="65000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-582F-4ED6-A6E0-E6CC92738BCD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="65000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="65000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="65000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SE parte7'!$H$10:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ALINE REZENDE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>THEO AUGUSTO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PAULA CARDOSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SE parte7'!$I$10:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-582F-4ED6-A6E0-E6CC92738BCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.2093834291474811E-2"/>
+          <c:y val="0.3114513048864031"/>
+          <c:w val="0.44557665585919409"/>
+          <c:h val="0.38920430551515095"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1">
+          <a:lumMod val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36765742175717414"/>
+          <c:y val="0.13143987390672807"/>
+          <c:w val="0.5897780519642617"/>
+          <c:h val="0.82466790529915346"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SE parte7'!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Retorno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="65000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="65000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="65000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-508A-4985-A3F8-CBE5BADE6ACF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-508A-4985-A3F8-CBE5BADE6ACF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="65000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="65000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="65000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-508A-4985-A3F8-CBE5BADE6ACF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27361033158052478"/>
+                      <c:h val="0.2133332082093824"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-508A-4985-A3F8-CBE5BADE6ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28719723183391005"/>
+                      <c:h val="0.21787696718311578"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-508A-4985-A3F8-CBE5BADE6ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.26438311128064007"/>
+                      <c:h val="0.2133332082093824"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-508A-4985-A3F8-CBE5BADE6ACF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SE parte7'!$H$10:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ALINE REZENDE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>THEO AUGUSTO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PAULA CARDOSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SE parte7'!$J$10:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>896.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>925.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-508A-4985-A3F8-CBE5BADE6ACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.2383896903570724E-2"/>
+          <c:y val="0.31145138155395052"/>
+          <c:w val="0.33922093912193296"/>
+          <c:h val="0.38920430551515095"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5FF17343-CCC5-472D-B238-5DA0B0DE2F6C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B1F1BB-9791-C5AB-EF62-587A5D10EC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A700986-BDE1-2685-20A3-72610DE5AFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9641974" cy="6007434"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BBF7F7-F4D0-9F16-ADD9-0B670D612A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0234515E-87B0-1E5C-9D92-C04A697530BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D042BA5-8808-32B5-90D3-A7EE9D8C36CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8734425" y="571500"/>
+          <a:ext cx="1905000" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Taxa de Participações</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAA609A-11AC-4669-93E4-3467DF02D6C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1337520C-CC9F-4437-A89F-52E6BB957E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="2524125"/>
+          <a:ext cx="1905000" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Taxa de Retorno</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1164,33 +6628,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="43"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="64"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -1210,8 +6674,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>70</v>
+      <c r="A6" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
@@ -1220,7 +6684,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1">
-        <f>B6-C6</f>
+        <f t="shared" ref="D6:D12" si="0">B6-C6</f>
         <v>0</v>
       </c>
       <c r="E6" s="2" t="str">
@@ -1229,8 +6693,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>69</v>
+      <c r="A7" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
@@ -1239,17 +6703,17 @@
         <v>27</v>
       </c>
       <c r="D7" s="1">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" ref="E7:E12" si="0">IF(D7&lt;0,"ERRO","OK")</f>
+        <f t="shared" ref="E7:E12" si="1">IF(D7&lt;0,"ERRO","OK")</f>
         <v>ERRO</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>68</v>
+      <c r="A8" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
@@ -1258,17 +6722,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="1">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>67</v>
+      <c r="A9" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="B9" s="1">
         <v>19</v>
@@ -1277,16 +6741,16 @@
         <v>32</v>
       </c>
       <c r="D9" s="1">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
         <v>-13</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ERRO</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1">
@@ -1296,16 +6760,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1">
@@ -1315,16 +6779,16 @@
         <v>14</v>
       </c>
       <c r="D11" s="1">
-        <f>B11-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1">
@@ -1334,11 +6798,11 @@
         <v>11</v>
       </c>
       <c r="D12" s="1">
-        <f>B12-C12</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -1382,13 +6846,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1569,7 +7033,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A4" sqref="A4:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,13 +7044,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1827,7 +7291,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,53 +7304,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="A1" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>38</v>
+      <c r="B3" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="18">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="18">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="D4" s="18">
         <f>C4-B4</f>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E4" s="19">
         <f>IFERROR(D4/C4,"Insira o valor de venda.")</f>
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="18">
         <v>120</v>
@@ -1905,55 +7369,59 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="18">
         <v>800</v>
       </c>
       <c r="C6" s="18">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.15789473684210525</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="18">
         <v>30</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="18">
+        <v>100</v>
+      </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>-30</v>
-      </c>
-      <c r="E7" s="19" t="str">
+        <v>70</v>
+      </c>
+      <c r="E7" s="19">
         <f t="shared" si="1"/>
-        <v>Insira o valor de venda.</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="18">
         <v>15</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="18">
+        <v>20</v>
+      </c>
       <c r="D8" s="18">
         <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="E8" s="19" t="str">
+        <v>5</v>
+      </c>
+      <c r="E8" s="19">
         <f t="shared" si="1"/>
-        <v>Insira o valor de venda.</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -1966,6 +7434,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1974,7 +7443,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,66 +7456,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="18">
         <v>3000</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="18">
         <v>3500</v>
       </c>
-      <c r="D4" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="28" t="str">
-        <f>IF(AND(C4&gt;=B4,D4&lt;5),"Comissão OK","Sem Comissão")</f>
-        <v>Comissão OK</v>
+      <c r="D4" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="20" t="str">
+        <f>IF(AND(C4&gt;=B4,D4&lt;5%),"Comissão OK","Sem Comissão")</f>
+        <v>Sem Comissão</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="18">
         <v>3000</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="18">
         <v>7800</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="21">
         <v>0.05</v>
       </c>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="20" t="str">
         <f>IF(AND(C5&gt;=B5,D5&lt;5%),"Comissão OK","Sem Comissão")</f>
         <v>Sem Comissão</v>
       </c>
@@ -2055,16 +7524,16 @@
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="18">
         <v>3000</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="18">
         <v>4500</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="21">
         <v>0.03</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="20" t="str">
         <f>IF(AND(C6&gt;=B6,D6&lt;5%),"Comissão OK","Sem Comissão")</f>
         <v>Comissão OK</v>
       </c>
@@ -2073,16 +7542,16 @@
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="18">
         <v>3000</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="18">
         <v>6500</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="21">
         <v>0.01</v>
       </c>
-      <c r="E7" s="28" t="str">
+      <c r="E7" s="20" t="str">
         <f t="shared" ref="E7:E10" si="0">IF(AND(C7&gt;=B7,D7&lt;5%),"Comissão OK","Sem Comissão")</f>
         <v>Comissão OK</v>
       </c>
@@ -2091,16 +7560,16 @@
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="18">
         <v>3000</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="18">
         <v>1000</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="21">
         <v>0.05</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Sem Comissão</v>
       </c>
@@ -2109,16 +7578,16 @@
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="18">
         <v>3000</v>
       </c>
       <c r="C9" s="6">
         <v>1000</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="22">
         <v>0.01</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Sem Comissão</v>
       </c>
@@ -2127,16 +7596,16 @@
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="18">
         <v>3000</v>
       </c>
       <c r="C10" s="6">
         <v>4500</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="22">
         <v>0.15</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Sem Comissão</v>
       </c>
@@ -2158,8 +7627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120A7452-9EFC-4F14-82A4-445F4E4C56EB}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,101 +7640,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="69"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="47">
+      <c r="A4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="28">
         <v>1500</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="48">
+      <c r="C4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="29">
         <v>80</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="str">
+      <c r="F4" t="str">
         <f>IF(OR(B4&gt;5000,C4="Aposentado(a)",D4&gt;65),"Empréstimo Concedido","Empréstimo Negado")</f>
         <v>Empréstimo Concedido</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="47">
+      <c r="A5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="28">
         <v>1300</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="48">
+      <c r="C5" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="29">
         <v>44</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="str">
+      <c r="F5" t="str">
         <f t="shared" ref="F5:F7" si="0">IF(OR(B5&gt;5000,C5="Aposentado(a)",D5&gt;65),"Empréstimo Concedido","Empréstimo Negado")</f>
         <v>Empréstimo Concedido</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="28">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="47">
-        <v>2000</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="48">
+      <c r="D6" s="29">
         <v>21</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>Empréstimo Negado</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="47">
+      <c r="A7" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="28">
         <v>7000</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="48">
+      <c r="C7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="29">
         <v>18</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>Empréstimo Concedido</v>
       </c>
@@ -2285,4 +7749,619 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B61DB55-A29B-4583-8603-B703EB904697}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:O26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="85"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="84"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="85"/>
+      <c r="C4" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="82"/>
+      <c r="H4" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="84"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="85"/>
+      <c r="C5" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="44">
+        <v>10</v>
+      </c>
+      <c r="E5" s="45">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F5" s="46">
+        <f>E5*D5</f>
+        <v>189</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="72">
+        <f>AVERAGE(D5:D17)</f>
+        <v>11.846153846153847</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="84"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="85"/>
+      <c r="C6" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="35">
+        <v>5</v>
+      </c>
+      <c r="E6" s="37">
+        <v>15.8</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" ref="F6:F17" si="0">E6*D6</f>
+        <v>79</v>
+      </c>
+      <c r="G6" s="82"/>
+      <c r="H6" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="74">
+        <f>AVERAGE(F5:F17)</f>
+        <v>176.3</v>
+      </c>
+      <c r="J6" s="75"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="84"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="85"/>
+      <c r="C7" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="35">
+        <v>5</v>
+      </c>
+      <c r="E7" s="37">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F7" s="40">
+        <f t="shared" si="0"/>
+        <v>94.5</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="84"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="85"/>
+      <c r="C8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="35">
+        <v>10</v>
+      </c>
+      <c r="E8" s="37">
+        <v>15.5</v>
+      </c>
+      <c r="F8" s="40">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="84"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="85"/>
+      <c r="C9" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="35">
+        <v>2</v>
+      </c>
+      <c r="E9" s="37">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F9" s="40">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="84"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="85"/>
+      <c r="C10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="35">
+        <v>10</v>
+      </c>
+      <c r="E10" s="37">
+        <v>5.32</v>
+      </c>
+      <c r="F10" s="40">
+        <f t="shared" si="0"/>
+        <v>53.2</v>
+      </c>
+      <c r="G10" s="82"/>
+      <c r="H10" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="30">
+        <f>COUNTIF($C$5:$C$17,H10)</f>
+        <v>7</v>
+      </c>
+      <c r="J10" s="53">
+        <f ca="1">SUMIF($C$5:$F$17,H10,$F$5:$F$17)</f>
+        <v>896.4</v>
+      </c>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="84"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="85"/>
+      <c r="C11" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="35">
+        <v>15</v>
+      </c>
+      <c r="E11" s="37">
+        <v>23.9</v>
+      </c>
+      <c r="F11" s="40">
+        <f t="shared" si="0"/>
+        <v>358.5</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="H11" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="30">
+        <f>COUNTIF($C$5:$C$17,H11)</f>
+        <v>4</v>
+      </c>
+      <c r="J11" s="53">
+        <f ca="1">SUMIF($C$5:$F$17,H11,$F$5:$F$17)</f>
+        <v>470</v>
+      </c>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="84"/>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="85"/>
+      <c r="C12" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="35">
+        <v>25</v>
+      </c>
+      <c r="E12" s="37">
+        <v>12.4</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="G12" s="82"/>
+      <c r="H12" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="34">
+        <f>COUNTIF($C$5:$C$17,H12)</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="54">
+        <f t="shared" ref="J12" ca="1" si="1">SUMIF($C$5:$F$17,H12,$F$5:$F$17)</f>
+        <v>925.5</v>
+      </c>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="84"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="85"/>
+      <c r="C13" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="35">
+        <v>30</v>
+      </c>
+      <c r="E13" s="37">
+        <v>10</v>
+      </c>
+      <c r="F13" s="40">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="84"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="85"/>
+      <c r="C14" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="35">
+        <v>30</v>
+      </c>
+      <c r="E14" s="37">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F14" s="40">
+        <f t="shared" si="0"/>
+        <v>567</v>
+      </c>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="84"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="85"/>
+      <c r="C15" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="35">
+        <v>2</v>
+      </c>
+      <c r="E15" s="37">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F15" s="40">
+        <f t="shared" si="0"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="84"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="85"/>
+      <c r="C16" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="35">
+        <v>5</v>
+      </c>
+      <c r="E16" s="37">
+        <v>15.5</v>
+      </c>
+      <c r="F16" s="40">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="84"/>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="85"/>
+      <c r="C17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="36">
+        <v>5</v>
+      </c>
+      <c r="E17" s="38">
+        <v>10</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="84"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="85"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="84"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="85"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="49">
+        <f>SUM(F5:F17)</f>
+        <v>2291.9</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="84"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="85"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="84"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="85"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="84"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="85"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="84"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="85"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="84"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="85"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="84"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="85"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="84"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>